--- a/email_list.xlsx
+++ b/email_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adocuments\NTU\T3courses\RPA\UiPath\Group1_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCF439-8810-46BF-A585-AEB9B81B7778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B82A447-3985-4BE9-A812-4DCE39244315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3540" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>imhuangkun@outlook.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,19 +36,6 @@
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwu017@gmail.com</t>
-  </si>
-  <si>
-    <t>gaoy0062@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>feng0175@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>ywang210@e.ntu.edu.sg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +375,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -412,31 +399,16 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7A7C3220-0AB2-4940-B45F-A6F140DB2184}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{84D74DBF-B3C3-4E0C-9964-4516AF08B8B9}"/>
-    <hyperlink ref="A7" r:id="rId3" xr:uid="{FEA2DD71-242E-43BF-B58B-7C4DBBF37C8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/email_list.xlsx
+++ b/email_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adocuments\NTU\T3courses\RPA\UiPath\Group1_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adocuments\NTU\T3courses\【Done】RPA\UiPath\Group1_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B82A447-3985-4BE9-A812-4DCE39244315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA9B150-96C4-4B84-BE6B-17F9F27BF450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3540" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>imhuangkun@outlook.com</t>
+    <t>Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>misskunhuang@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
+    <t>example@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +371,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -385,18 +381,16 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -407,8 +401,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A7C3220-0AB2-4940-B45F-A6F140DB2184}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{84D74DBF-B3C3-4E0C-9964-4516AF08B8B9}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B7BD8041-2704-4F7B-AD7B-983ED5A68BC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
